--- a/data/historico.xlsx
+++ b/data/historico.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4898C2E8-5B3B-4A3A-BB58-F9FE7771354B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D515793-DAD3-41FC-964A-7632D09DA6C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,9 +27,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>Julian_days</t>
-  </si>
-  <si>
     <t>TMAX</t>
   </si>
   <si>
@@ -37,6 +34,9 @@
   </si>
   <si>
     <t>Prec</t>
+  </si>
+  <si>
+    <t>Fecha</t>
   </si>
 </sst>
 </file>
@@ -520,8 +520,9 @@
     <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Énfasis1" xfId="18" builtinId="30" customBuiltin="1"/>
@@ -846,7 +847,7 @@
   <dimension ref="A1:D223"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -856,21 +857,21 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
+      <c r="A2" s="1">
+        <v>45658</v>
       </c>
       <c r="B2">
         <v>31</v>
@@ -883,8 +884,8 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
+      <c r="A3" s="1">
+        <v>45659</v>
       </c>
       <c r="B3">
         <v>28.9</v>
@@ -897,8 +898,8 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
+      <c r="A4" s="1">
+        <v>45660</v>
       </c>
       <c r="B4">
         <v>31.9</v>
@@ -911,8 +912,8 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
+      <c r="A5" s="1">
+        <v>45661</v>
       </c>
       <c r="B5">
         <v>33.9</v>
@@ -925,8 +926,8 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
+      <c r="A6" s="1">
+        <v>45662</v>
       </c>
       <c r="B6">
         <v>32.1</v>
@@ -939,8 +940,8 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>6</v>
+      <c r="A7" s="1">
+        <v>45663</v>
       </c>
       <c r="B7">
         <v>31.7</v>
@@ -953,8 +954,8 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>7</v>
+      <c r="A8" s="1">
+        <v>45664</v>
       </c>
       <c r="B8">
         <v>34.200000000000003</v>
@@ -967,8 +968,8 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>8</v>
+      <c r="A9" s="1">
+        <v>45665</v>
       </c>
       <c r="B9">
         <v>35</v>
@@ -981,8 +982,8 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>9</v>
+      <c r="A10" s="1">
+        <v>45666</v>
       </c>
       <c r="B10">
         <v>34</v>
@@ -995,8 +996,8 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>10</v>
+      <c r="A11" s="1">
+        <v>45667</v>
       </c>
       <c r="B11">
         <v>26.8</v>
@@ -1009,8 +1010,8 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>11</v>
+      <c r="A12" s="1">
+        <v>45668</v>
       </c>
       <c r="B12">
         <v>32.299999999999997</v>
@@ -1023,8 +1024,8 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>12</v>
+      <c r="A13" s="1">
+        <v>45669</v>
       </c>
       <c r="B13">
         <v>34.4</v>
@@ -1037,8 +1038,8 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>13</v>
+      <c r="A14" s="1">
+        <v>45670</v>
       </c>
       <c r="B14">
         <v>37.200000000000003</v>
@@ -1051,8 +1052,8 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>14</v>
+      <c r="A15" s="1">
+        <v>45671</v>
       </c>
       <c r="B15">
         <v>35.799999999999997</v>
@@ -1065,8 +1066,8 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>15</v>
+      <c r="A16" s="1">
+        <v>45672</v>
       </c>
       <c r="B16">
         <v>39</v>
@@ -1079,8 +1080,8 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>16</v>
+      <c r="A17" s="1">
+        <v>45673</v>
       </c>
       <c r="B17">
         <v>31.8</v>
@@ -1093,8 +1094,8 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>17</v>
+      <c r="A18" s="1">
+        <v>45674</v>
       </c>
       <c r="B18">
         <v>30.5</v>
@@ -1107,8 +1108,8 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>18</v>
+      <c r="A19" s="1">
+        <v>45675</v>
       </c>
       <c r="B19">
         <v>30.9</v>
@@ -1121,8 +1122,8 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>19</v>
+      <c r="A20" s="1">
+        <v>45676</v>
       </c>
       <c r="B20">
         <v>32.200000000000003</v>
@@ -1135,8 +1136,8 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>20</v>
+      <c r="A21" s="1">
+        <v>45677</v>
       </c>
       <c r="B21">
         <v>32.299999999999997</v>
@@ -1149,8 +1150,8 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>21</v>
+      <c r="A22" s="1">
+        <v>45678</v>
       </c>
       <c r="B22">
         <v>35.799999999999997</v>
@@ -1163,8 +1164,8 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>22</v>
+      <c r="A23" s="1">
+        <v>45679</v>
       </c>
       <c r="B23">
         <v>36.700000000000003</v>
@@ -1177,8 +1178,8 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>23</v>
+      <c r="A24" s="1">
+        <v>45680</v>
       </c>
       <c r="B24">
         <v>37</v>
@@ -1191,8 +1192,8 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>24</v>
+      <c r="A25" s="1">
+        <v>45681</v>
       </c>
       <c r="B25">
         <v>32</v>
@@ -1205,8 +1206,8 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>25</v>
+      <c r="A26" s="1">
+        <v>45682</v>
       </c>
       <c r="B26">
         <v>36.299999999999997</v>
@@ -1219,8 +1220,8 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>26</v>
+      <c r="A27" s="1">
+        <v>45683</v>
       </c>
       <c r="B27">
         <v>36.1</v>
@@ -1233,8 +1234,8 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>27</v>
+      <c r="A28" s="1">
+        <v>45684</v>
       </c>
       <c r="B28">
         <v>32.1</v>
@@ -1247,8 +1248,8 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>28</v>
+      <c r="A29" s="1">
+        <v>45685</v>
       </c>
       <c r="B29">
         <v>32.4</v>
@@ -1261,8 +1262,8 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>29</v>
+      <c r="A30" s="1">
+        <v>45686</v>
       </c>
       <c r="B30">
         <v>34.1</v>
@@ -1275,8 +1276,8 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>30</v>
+      <c r="A31" s="1">
+        <v>45687</v>
       </c>
       <c r="B31">
         <v>34.6</v>
@@ -1289,8 +1290,8 @@
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>31</v>
+      <c r="A32" s="1">
+        <v>45688</v>
       </c>
       <c r="B32">
         <v>35.700000000000003</v>
@@ -1303,8 +1304,8 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>32</v>
+      <c r="A33" s="1">
+        <v>45689</v>
       </c>
       <c r="B33">
         <v>33.299999999999997</v>
@@ -1317,8 +1318,8 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>33</v>
+      <c r="A34" s="1">
+        <v>45690</v>
       </c>
       <c r="B34">
         <v>36.6</v>
@@ -1331,8 +1332,8 @@
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>34</v>
+      <c r="A35" s="1">
+        <v>45691</v>
       </c>
       <c r="B35">
         <v>33.6</v>
@@ -1345,8 +1346,8 @@
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>35</v>
+      <c r="A36" s="1">
+        <v>45692</v>
       </c>
       <c r="B36">
         <v>33.299999999999997</v>
@@ -1359,8 +1360,8 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>36</v>
+      <c r="A37" s="1">
+        <v>45693</v>
       </c>
       <c r="B37">
         <v>25.8</v>
@@ -1373,8 +1374,8 @@
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>37</v>
+      <c r="A38" s="1">
+        <v>45694</v>
       </c>
       <c r="B38">
         <v>33.6</v>
@@ -1387,8 +1388,8 @@
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>38</v>
+      <c r="A39" s="1">
+        <v>45695</v>
       </c>
       <c r="B39">
         <v>35.4</v>
@@ -1401,8 +1402,8 @@
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>39</v>
+      <c r="A40" s="1">
+        <v>45696</v>
       </c>
       <c r="B40">
         <v>32.5</v>
@@ -1415,8 +1416,8 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>40</v>
+      <c r="A41" s="1">
+        <v>45697</v>
       </c>
       <c r="B41">
         <v>33.6</v>
@@ -1429,8 +1430,8 @@
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>41</v>
+      <c r="A42" s="1">
+        <v>45698</v>
       </c>
       <c r="B42">
         <v>35.299999999999997</v>
@@ -1443,8 +1444,8 @@
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <v>42</v>
+      <c r="A43" s="1">
+        <v>45699</v>
       </c>
       <c r="B43">
         <v>28.7</v>
@@ -1457,8 +1458,8 @@
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <v>43</v>
+      <c r="A44" s="1">
+        <v>45700</v>
       </c>
       <c r="B44">
         <v>30.6</v>
@@ -1471,8 +1472,8 @@
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <v>44</v>
+      <c r="A45" s="1">
+        <v>45701</v>
       </c>
       <c r="B45">
         <v>33.799999999999997</v>
@@ -1485,8 +1486,8 @@
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <v>45</v>
+      <c r="A46" s="1">
+        <v>45702</v>
       </c>
       <c r="B46">
         <v>27.3</v>
@@ -1499,8 +1500,8 @@
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <v>46</v>
+      <c r="A47" s="1">
+        <v>45703</v>
       </c>
       <c r="B47">
         <v>31.2</v>
@@ -1513,8 +1514,8 @@
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48">
-        <v>47</v>
+      <c r="A48" s="1">
+        <v>45704</v>
       </c>
       <c r="B48">
         <v>31.3</v>
@@ -1527,8 +1528,8 @@
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49">
-        <v>48</v>
+      <c r="A49" s="1">
+        <v>45705</v>
       </c>
       <c r="B49">
         <v>26</v>
@@ -1541,8 +1542,8 @@
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50">
-        <v>49</v>
+      <c r="A50" s="1">
+        <v>45706</v>
       </c>
       <c r="B50">
         <v>28.2</v>
@@ -1555,8 +1556,8 @@
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51">
-        <v>50</v>
+      <c r="A51" s="1">
+        <v>45707</v>
       </c>
       <c r="B51">
         <v>36.1</v>
@@ -1569,8 +1570,8 @@
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52">
-        <v>51</v>
+      <c r="A52" s="1">
+        <v>45708</v>
       </c>
       <c r="B52">
         <v>35</v>
@@ -1583,8 +1584,8 @@
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53">
-        <v>52</v>
+      <c r="A53" s="1">
+        <v>45709</v>
       </c>
       <c r="B53">
         <v>36.200000000000003</v>
@@ -1597,8 +1598,8 @@
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54">
-        <v>53</v>
+      <c r="A54" s="1">
+        <v>45710</v>
       </c>
       <c r="B54">
         <v>38.9</v>
@@ -1611,8 +1612,8 @@
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55">
-        <v>54</v>
+      <c r="A55" s="1">
+        <v>45711</v>
       </c>
       <c r="B55">
         <v>28</v>
@@ -1625,8 +1626,8 @@
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56">
-        <v>55</v>
+      <c r="A56" s="1">
+        <v>45712</v>
       </c>
       <c r="B56">
         <v>32.1</v>
@@ -1639,8 +1640,8 @@
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57">
-        <v>56</v>
+      <c r="A57" s="1">
+        <v>45713</v>
       </c>
       <c r="B57">
         <v>35</v>
@@ -1653,8 +1654,8 @@
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58">
-        <v>57</v>
+      <c r="A58" s="1">
+        <v>45714</v>
       </c>
       <c r="B58">
         <v>25.7</v>
@@ -1667,8 +1668,8 @@
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59">
-        <v>58</v>
+      <c r="A59" s="1">
+        <v>45715</v>
       </c>
       <c r="B59">
         <v>25.9</v>
@@ -1681,8 +1682,8 @@
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60">
-        <v>59</v>
+      <c r="A60" s="1">
+        <v>45716</v>
       </c>
       <c r="B60">
         <v>26.5</v>
@@ -1695,8 +1696,8 @@
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61">
-        <v>60</v>
+      <c r="A61" s="1">
+        <v>45717</v>
       </c>
       <c r="B61">
         <v>31.8</v>
@@ -1709,8 +1710,8 @@
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62">
-        <v>61</v>
+      <c r="A62" s="1">
+        <v>45718</v>
       </c>
       <c r="B62">
         <v>23.3</v>
@@ -1723,8 +1724,8 @@
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63">
-        <v>62</v>
+      <c r="A63" s="1">
+        <v>45719</v>
       </c>
       <c r="B63">
         <v>28.4</v>
@@ -1737,8 +1738,8 @@
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64">
-        <v>63</v>
+      <c r="A64" s="1">
+        <v>45720</v>
       </c>
       <c r="B64">
         <v>26.9</v>
@@ -1751,8 +1752,8 @@
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65">
-        <v>64</v>
+      <c r="A65" s="1">
+        <v>45721</v>
       </c>
       <c r="B65">
         <v>23.7</v>
@@ -1765,8 +1766,8 @@
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66">
-        <v>65</v>
+      <c r="A66" s="1">
+        <v>45722</v>
       </c>
       <c r="B66">
         <v>26.1</v>
@@ -1779,8 +1780,8 @@
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67">
-        <v>66</v>
+      <c r="A67" s="1">
+        <v>45723</v>
       </c>
       <c r="B67">
         <v>25</v>
@@ -1793,8 +1794,8 @@
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68">
-        <v>67</v>
+      <c r="A68" s="1">
+        <v>45724</v>
       </c>
       <c r="B68">
         <v>21.6</v>
@@ -1807,8 +1808,8 @@
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69">
-        <v>68</v>
+      <c r="A69" s="1">
+        <v>45725</v>
       </c>
       <c r="B69">
         <v>23.1</v>
@@ -1821,8 +1822,8 @@
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70">
-        <v>69</v>
+      <c r="A70" s="1">
+        <v>45726</v>
       </c>
       <c r="B70">
         <v>29.5</v>
@@ -1835,8 +1836,8 @@
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71">
-        <v>70</v>
+      <c r="A71" s="1">
+        <v>45727</v>
       </c>
       <c r="B71">
         <v>21.2</v>
@@ -1849,8 +1850,8 @@
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72">
-        <v>71</v>
+      <c r="A72" s="1">
+        <v>45728</v>
       </c>
       <c r="B72">
         <v>22.9</v>
@@ -1863,8 +1864,8 @@
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73">
-        <v>72</v>
+      <c r="A73" s="1">
+        <v>45729</v>
       </c>
       <c r="B73">
         <v>24.7</v>
@@ -1877,8 +1878,8 @@
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74">
-        <v>73</v>
+      <c r="A74" s="1">
+        <v>45730</v>
       </c>
       <c r="B74">
         <v>24.3</v>
@@ -1891,8 +1892,8 @@
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75">
-        <v>74</v>
+      <c r="A75" s="1">
+        <v>45731</v>
       </c>
       <c r="B75">
         <v>25.9</v>
@@ -1905,8 +1906,8 @@
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76">
-        <v>75</v>
+      <c r="A76" s="1">
+        <v>45732</v>
       </c>
       <c r="B76">
         <v>29.2</v>
@@ -1919,8 +1920,8 @@
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77">
-        <v>76</v>
+      <c r="A77" s="1">
+        <v>45733</v>
       </c>
       <c r="B77">
         <v>31.7</v>
@@ -1933,8 +1934,8 @@
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78">
-        <v>77</v>
+      <c r="A78" s="1">
+        <v>45734</v>
       </c>
       <c r="B78">
         <v>26.6</v>
@@ -1947,8 +1948,8 @@
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79">
-        <v>78</v>
+      <c r="A79" s="1">
+        <v>45735</v>
       </c>
       <c r="B79">
         <v>31.4</v>
@@ -1961,8 +1962,8 @@
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80">
-        <v>79</v>
+      <c r="A80" s="1">
+        <v>45736</v>
       </c>
       <c r="B80">
         <v>34</v>
@@ -1975,8 +1976,8 @@
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81">
-        <v>80</v>
+      <c r="A81" s="1">
+        <v>45737</v>
       </c>
       <c r="B81">
         <v>33</v>
@@ -1989,8 +1990,8 @@
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82">
-        <v>81</v>
+      <c r="A82" s="1">
+        <v>45738</v>
       </c>
       <c r="B82">
         <v>22</v>
@@ -2003,8 +2004,8 @@
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83">
-        <v>82</v>
+      <c r="A83" s="1">
+        <v>45739</v>
       </c>
       <c r="B83">
         <v>16</v>
@@ -2017,8 +2018,8 @@
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84">
-        <v>83</v>
+      <c r="A84" s="1">
+        <v>45740</v>
       </c>
       <c r="B84">
         <v>19.600000000000001</v>
@@ -2031,8 +2032,8 @@
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85">
-        <v>84</v>
+      <c r="A85" s="1">
+        <v>45741</v>
       </c>
       <c r="B85">
         <v>25.2</v>
@@ -2045,8 +2046,8 @@
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86">
-        <v>85</v>
+      <c r="A86" s="1">
+        <v>45742</v>
       </c>
       <c r="B86">
         <v>19.399999999999999</v>
@@ -2059,8 +2060,8 @@
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87">
-        <v>86</v>
+      <c r="A87" s="1">
+        <v>45743</v>
       </c>
       <c r="B87">
         <v>26.6</v>
@@ -2073,8 +2074,8 @@
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A88">
-        <v>87</v>
+      <c r="A88" s="1">
+        <v>45744</v>
       </c>
       <c r="B88">
         <v>26.9</v>
@@ -2087,8 +2088,8 @@
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A89">
-        <v>88</v>
+      <c r="A89" s="1">
+        <v>45745</v>
       </c>
       <c r="B89">
         <v>26.6</v>
@@ -2101,8 +2102,8 @@
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90">
-        <v>89</v>
+      <c r="A90" s="1">
+        <v>45746</v>
       </c>
       <c r="B90">
         <v>21.3</v>
@@ -2115,8 +2116,8 @@
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91">
-        <v>90</v>
+      <c r="A91" s="1">
+        <v>45747</v>
       </c>
       <c r="B91">
         <v>18.8</v>
@@ -2129,8 +2130,8 @@
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A92">
-        <v>91</v>
+      <c r="A92" s="1">
+        <v>45748</v>
       </c>
       <c r="B92">
         <v>20.100000000000001</v>
@@ -2143,8 +2144,8 @@
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93">
-        <v>92</v>
+      <c r="A93" s="1">
+        <v>45749</v>
       </c>
       <c r="B93">
         <v>23.6</v>
@@ -2157,8 +2158,8 @@
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A94">
-        <v>93</v>
+      <c r="A94" s="1">
+        <v>45750</v>
       </c>
       <c r="B94">
         <v>15.6</v>
@@ -2171,8 +2172,8 @@
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A95">
-        <v>94</v>
+      <c r="A95" s="1">
+        <v>45751</v>
       </c>
       <c r="B95">
         <v>16.7</v>
@@ -2185,8 +2186,8 @@
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A96">
-        <v>95</v>
+      <c r="A96" s="1">
+        <v>45752</v>
       </c>
       <c r="B96">
         <v>19</v>
@@ -2199,8 +2200,8 @@
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A97">
-        <v>96</v>
+      <c r="A97" s="1">
+        <v>45753</v>
       </c>
       <c r="B97">
         <v>22.6</v>
@@ -2213,8 +2214,8 @@
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A98">
-        <v>97</v>
+      <c r="A98" s="1">
+        <v>45754</v>
       </c>
       <c r="B98">
         <v>23.8</v>
@@ -2227,8 +2228,8 @@
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A99">
-        <v>98</v>
+      <c r="A99" s="1">
+        <v>45755</v>
       </c>
       <c r="B99">
         <v>23.1</v>
@@ -2241,8 +2242,8 @@
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A100">
-        <v>99</v>
+      <c r="A100" s="1">
+        <v>45756</v>
       </c>
       <c r="B100">
         <v>24.4</v>
@@ -2255,8 +2256,8 @@
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A101">
-        <v>100</v>
+      <c r="A101" s="1">
+        <v>45757</v>
       </c>
       <c r="B101">
         <v>23</v>
@@ -2269,8 +2270,8 @@
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A102">
-        <v>101</v>
+      <c r="A102" s="1">
+        <v>45758</v>
       </c>
       <c r="B102">
         <v>20.9</v>
@@ -2283,8 +2284,8 @@
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A103">
-        <v>102</v>
+      <c r="A103" s="1">
+        <v>45759</v>
       </c>
       <c r="B103">
         <v>19.399999999999999</v>
@@ -2297,8 +2298,8 @@
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A104">
-        <v>103</v>
+      <c r="A104" s="1">
+        <v>45760</v>
       </c>
       <c r="B104">
         <v>21.1</v>
@@ -2311,8 +2312,8 @@
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A105">
-        <v>104</v>
+      <c r="A105" s="1">
+        <v>45761</v>
       </c>
       <c r="B105">
         <v>19.399999999999999</v>
@@ -2325,8 +2326,8 @@
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A106">
-        <v>105</v>
+      <c r="A106" s="1">
+        <v>45762</v>
       </c>
       <c r="B106">
         <v>21.1</v>
@@ -2339,8 +2340,8 @@
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A107">
-        <v>106</v>
+      <c r="A107" s="1">
+        <v>45763</v>
       </c>
       <c r="B107">
         <v>18.5</v>
@@ -2353,8 +2354,8 @@
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A108">
-        <v>107</v>
+      <c r="A108" s="1">
+        <v>45764</v>
       </c>
       <c r="B108">
         <v>20</v>
@@ -2367,8 +2368,8 @@
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A109">
-        <v>108</v>
+      <c r="A109" s="1">
+        <v>45765</v>
       </c>
       <c r="B109">
         <v>16.8</v>
@@ -2381,8 +2382,8 @@
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A110">
-        <v>109</v>
+      <c r="A110" s="1">
+        <v>45766</v>
       </c>
       <c r="B110">
         <v>17.3</v>
@@ -2395,8 +2396,8 @@
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A111">
-        <v>110</v>
+      <c r="A111" s="1">
+        <v>45767</v>
       </c>
       <c r="B111">
         <v>17.8</v>
@@ -2409,8 +2410,8 @@
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A112">
-        <v>111</v>
+      <c r="A112" s="1">
+        <v>45768</v>
       </c>
       <c r="B112">
         <v>16.100000000000001</v>
@@ -2423,8 +2424,8 @@
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A113">
-        <v>112</v>
+      <c r="A113" s="1">
+        <v>45769</v>
       </c>
       <c r="B113">
         <v>19.600000000000001</v>
@@ -2437,8 +2438,8 @@
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A114">
-        <v>113</v>
+      <c r="A114" s="1">
+        <v>45770</v>
       </c>
       <c r="B114">
         <v>22.8</v>
@@ -2451,8 +2452,8 @@
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A115">
-        <v>114</v>
+      <c r="A115" s="1">
+        <v>45771</v>
       </c>
       <c r="B115">
         <v>24</v>
@@ -2465,8 +2466,8 @@
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A116">
-        <v>115</v>
+      <c r="A116" s="1">
+        <v>45772</v>
       </c>
       <c r="B116">
         <v>22.6</v>
@@ -2479,8 +2480,8 @@
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A117">
-        <v>116</v>
+      <c r="A117" s="1">
+        <v>45773</v>
       </c>
       <c r="B117">
         <v>17.8</v>
@@ -2493,8 +2494,8 @@
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A118">
-        <v>117</v>
+      <c r="A118" s="1">
+        <v>45774</v>
       </c>
       <c r="B118">
         <v>19.3</v>
@@ -2507,8 +2508,8 @@
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A119">
-        <v>118</v>
+      <c r="A119" s="1">
+        <v>45775</v>
       </c>
       <c r="B119">
         <v>23.6</v>
@@ -2521,8 +2522,8 @@
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A120">
-        <v>119</v>
+      <c r="A120" s="1">
+        <v>45776</v>
       </c>
       <c r="B120">
         <v>25</v>
@@ -2535,8 +2536,8 @@
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A121">
-        <v>120</v>
+      <c r="A121" s="1">
+        <v>45777</v>
       </c>
       <c r="B121">
         <v>23.9</v>
@@ -2549,8 +2550,8 @@
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A122">
-        <v>121</v>
+      <c r="A122" s="1">
+        <v>45778</v>
       </c>
       <c r="B122">
         <v>21.8</v>
@@ -2563,8 +2564,8 @@
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A123">
-        <v>122</v>
+      <c r="A123" s="1">
+        <v>45779</v>
       </c>
       <c r="B123">
         <v>21.7</v>
@@ -2577,8 +2578,8 @@
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A124">
-        <v>123</v>
+      <c r="A124" s="1">
+        <v>45780</v>
       </c>
       <c r="B124">
         <v>26.6</v>
@@ -2591,8 +2592,8 @@
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A125">
-        <v>124</v>
+      <c r="A125" s="1">
+        <v>45781</v>
       </c>
       <c r="B125">
         <v>20.2</v>
@@ -2605,8 +2606,8 @@
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A126">
-        <v>125</v>
+      <c r="A126" s="1">
+        <v>45782</v>
       </c>
       <c r="B126">
         <v>18.399999999999999</v>
@@ -2619,8 +2620,8 @@
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A127">
-        <v>126</v>
+      <c r="A127" s="1">
+        <v>45783</v>
       </c>
       <c r="B127">
         <v>17.2</v>
@@ -2633,8 +2634,8 @@
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A128">
-        <v>127</v>
+      <c r="A128" s="1">
+        <v>45784</v>
       </c>
       <c r="B128">
         <v>15.8</v>
@@ -2647,8 +2648,8 @@
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A129">
-        <v>128</v>
+      <c r="A129" s="1">
+        <v>45785</v>
       </c>
       <c r="B129">
         <v>19.899999999999999</v>
@@ -2661,8 +2662,8 @@
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A130">
-        <v>129</v>
+      <c r="A130" s="1">
+        <v>45786</v>
       </c>
       <c r="B130">
         <v>21.8</v>
@@ -2675,8 +2676,8 @@
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A131">
-        <v>130</v>
+      <c r="A131" s="1">
+        <v>45787</v>
       </c>
       <c r="B131">
         <v>22.9</v>
@@ -2689,8 +2690,8 @@
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A132">
-        <v>131</v>
+      <c r="A132" s="1">
+        <v>45788</v>
       </c>
       <c r="B132">
         <v>23.8</v>
@@ -2703,8 +2704,8 @@
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A133">
-        <v>132</v>
+      <c r="A133" s="1">
+        <v>45789</v>
       </c>
       <c r="B133">
         <v>23</v>
@@ -2717,8 +2718,8 @@
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A134">
-        <v>133</v>
+      <c r="A134" s="1">
+        <v>45790</v>
       </c>
       <c r="B134">
         <v>22.7</v>
@@ -2731,8 +2732,8 @@
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A135">
-        <v>134</v>
+      <c r="A135" s="1">
+        <v>45791</v>
       </c>
       <c r="B135">
         <v>24.9</v>
@@ -2745,8 +2746,8 @@
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A136">
-        <v>135</v>
+      <c r="A136" s="1">
+        <v>45792</v>
       </c>
       <c r="B136">
         <v>22.9</v>
@@ -2759,8 +2760,8 @@
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A137">
-        <v>136</v>
+      <c r="A137" s="1">
+        <v>45793</v>
       </c>
       <c r="B137">
         <v>23.3</v>
@@ -2773,8 +2774,8 @@
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A138">
-        <v>137</v>
+      <c r="A138" s="1">
+        <v>45794</v>
       </c>
       <c r="B138">
         <v>22.7</v>
@@ -2787,8 +2788,8 @@
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A139">
-        <v>138</v>
+      <c r="A139" s="1">
+        <v>45795</v>
       </c>
       <c r="B139">
         <v>15.1</v>
@@ -2801,8 +2802,8 @@
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A140">
-        <v>139</v>
+      <c r="A140" s="1">
+        <v>45796</v>
       </c>
       <c r="B140">
         <v>16.5</v>
@@ -2815,8 +2816,8 @@
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A141">
-        <v>140</v>
+      <c r="A141" s="1">
+        <v>45797</v>
       </c>
       <c r="B141">
         <v>14.6</v>
@@ -2829,8 +2830,8 @@
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A142">
-        <v>141</v>
+      <c r="A142" s="1">
+        <v>45798</v>
       </c>
       <c r="B142">
         <v>14</v>
@@ -2843,8 +2844,8 @@
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A143">
-        <v>142</v>
+      <c r="A143" s="1">
+        <v>45799</v>
       </c>
       <c r="B143">
         <v>13.7</v>
@@ -2857,8 +2858,8 @@
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A144">
-        <v>143</v>
+      <c r="A144" s="1">
+        <v>45800</v>
       </c>
       <c r="B144">
         <v>17.2</v>
@@ -2871,8 +2872,8 @@
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A145">
-        <v>144</v>
+      <c r="A145" s="1">
+        <v>45801</v>
       </c>
       <c r="B145">
         <v>20.3</v>
@@ -2885,8 +2886,8 @@
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A146">
-        <v>145</v>
+      <c r="A146" s="1">
+        <v>45802</v>
       </c>
       <c r="B146">
         <v>17.2</v>
@@ -2899,8 +2900,8 @@
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A147">
-        <v>146</v>
+      <c r="A147" s="1">
+        <v>45803</v>
       </c>
       <c r="B147">
         <v>15.2</v>
@@ -2913,8 +2914,8 @@
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A148">
-        <v>147</v>
+      <c r="A148" s="1">
+        <v>45804</v>
       </c>
       <c r="B148">
         <v>12.9</v>
@@ -2927,8 +2928,8 @@
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A149">
-        <v>148</v>
+      <c r="A149" s="1">
+        <v>45805</v>
       </c>
       <c r="B149">
         <v>11</v>
@@ -2941,8 +2942,8 @@
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A150">
-        <v>149</v>
+      <c r="A150" s="1">
+        <v>45806</v>
       </c>
       <c r="B150">
         <v>17.100000000000001</v>
@@ -2955,8 +2956,8 @@
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A151">
-        <v>150</v>
+      <c r="A151" s="1">
+        <v>45807</v>
       </c>
       <c r="B151">
         <v>16.399999999999999</v>
@@ -2969,8 +2970,8 @@
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A152">
-        <v>151</v>
+      <c r="A152" s="1">
+        <v>45808</v>
       </c>
       <c r="B152">
         <v>13.8</v>
@@ -2983,8 +2984,8 @@
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A153">
-        <v>152</v>
+      <c r="A153" s="1">
+        <v>45809</v>
       </c>
       <c r="B153">
         <v>17.8</v>
@@ -2997,8 +2998,8 @@
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A154">
-        <v>153</v>
+      <c r="A154" s="1">
+        <v>45810</v>
       </c>
       <c r="B154">
         <v>20</v>
@@ -3011,8 +3012,8 @@
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A155">
-        <v>154</v>
+      <c r="A155" s="1">
+        <v>45811</v>
       </c>
       <c r="B155">
         <v>17.600000000000001</v>
@@ -3025,8 +3026,8 @@
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A156">
-        <v>155</v>
+      <c r="A156" s="1">
+        <v>45812</v>
       </c>
       <c r="B156">
         <v>18.3</v>
@@ -3039,8 +3040,8 @@
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A157">
-        <v>156</v>
+      <c r="A157" s="1">
+        <v>45813</v>
       </c>
       <c r="B157">
         <v>17.899999999999999</v>
@@ -3053,8 +3054,8 @@
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A158">
-        <v>157</v>
+      <c r="A158" s="1">
+        <v>45814</v>
       </c>
       <c r="B158">
         <v>21.3</v>
@@ -3067,8 +3068,8 @@
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A159">
-        <v>158</v>
+      <c r="A159" s="1">
+        <v>45815</v>
       </c>
       <c r="B159">
         <v>18.8</v>
@@ -3081,8 +3082,8 @@
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A160">
-        <v>159</v>
+      <c r="A160" s="1">
+        <v>45816</v>
       </c>
       <c r="B160">
         <v>16.5</v>
@@ -3095,8 +3096,8 @@
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A161">
-        <v>160</v>
+      <c r="A161" s="1">
+        <v>45817</v>
       </c>
       <c r="B161">
         <v>10.5</v>
@@ -3109,8 +3110,8 @@
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A162">
-        <v>161</v>
+      <c r="A162" s="1">
+        <v>45818</v>
       </c>
       <c r="B162">
         <v>8.1</v>
@@ -3123,8 +3124,8 @@
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A163">
-        <v>162</v>
+      <c r="A163" s="1">
+        <v>45819</v>
       </c>
       <c r="B163">
         <v>16</v>
@@ -3137,8 +3138,8 @@
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A164">
-        <v>163</v>
+      <c r="A164" s="1">
+        <v>45820</v>
       </c>
       <c r="B164">
         <v>14.4</v>
@@ -3151,8 +3152,8 @@
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A165">
-        <v>164</v>
+      <c r="A165" s="1">
+        <v>45821</v>
       </c>
       <c r="B165">
         <v>14.6</v>
@@ -3165,8 +3166,8 @@
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A166">
-        <v>165</v>
+      <c r="A166" s="1">
+        <v>45822</v>
       </c>
       <c r="B166">
         <v>16.7</v>
@@ -3179,8 +3180,8 @@
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A167">
-        <v>166</v>
+      <c r="A167" s="1">
+        <v>45823</v>
       </c>
       <c r="B167">
         <v>17.2</v>
@@ -3193,8 +3194,8 @@
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A168">
-        <v>167</v>
+      <c r="A168" s="1">
+        <v>45824</v>
       </c>
       <c r="B168">
         <v>15.2</v>
@@ -3207,8 +3208,8 @@
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A169">
-        <v>168</v>
+      <c r="A169" s="1">
+        <v>45825</v>
       </c>
       <c r="B169">
         <v>16.3</v>
@@ -3221,8 +3222,8 @@
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A170">
-        <v>169</v>
+      <c r="A170" s="1">
+        <v>45826</v>
       </c>
       <c r="B170">
         <v>15.2</v>
@@ -3235,8 +3236,8 @@
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A171">
-        <v>170</v>
+      <c r="A171" s="1">
+        <v>45827</v>
       </c>
       <c r="B171">
         <v>19.2</v>
@@ -3249,8 +3250,8 @@
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A172">
-        <v>171</v>
+      <c r="A172" s="1">
+        <v>45828</v>
       </c>
       <c r="B172">
         <v>17.3</v>
@@ -3263,8 +3264,8 @@
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A173">
-        <v>172</v>
+      <c r="A173" s="1">
+        <v>45829</v>
       </c>
       <c r="B173">
         <v>15</v>
@@ -3277,8 +3278,8 @@
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A174">
-        <v>173</v>
+      <c r="A174" s="1">
+        <v>45830</v>
       </c>
       <c r="B174">
         <v>11.3</v>
@@ -3291,8 +3292,8 @@
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A175">
-        <v>174</v>
+      <c r="A175" s="1">
+        <v>45831</v>
       </c>
       <c r="B175">
         <v>8.3000000000000007</v>
@@ -3305,8 +3306,8 @@
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A176">
-        <v>175</v>
+      <c r="A176" s="1">
+        <v>45832</v>
       </c>
       <c r="B176">
         <v>17.7</v>
@@ -3319,8 +3320,8 @@
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A177">
-        <v>176</v>
+      <c r="A177" s="1">
+        <v>45833</v>
       </c>
       <c r="B177">
         <v>10.9</v>
@@ -3333,8 +3334,8 @@
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A178">
-        <v>177</v>
+      <c r="A178" s="1">
+        <v>45834</v>
       </c>
       <c r="B178">
         <v>15.4</v>
@@ -3347,8 +3348,8 @@
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A179">
-        <v>178</v>
+      <c r="A179" s="1">
+        <v>45835</v>
       </c>
       <c r="B179">
         <v>8.6</v>
@@ -3361,8 +3362,8 @@
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A180">
-        <v>179</v>
+      <c r="A180" s="1">
+        <v>45836</v>
       </c>
       <c r="B180">
         <v>5.7</v>
@@ -3375,8 +3376,8 @@
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A181">
-        <v>180</v>
+      <c r="A181" s="1">
+        <v>45837</v>
       </c>
       <c r="B181">
         <v>6.5</v>
@@ -3389,8 +3390,8 @@
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A182">
-        <v>181</v>
+      <c r="A182" s="1">
+        <v>45838</v>
       </c>
       <c r="B182">
         <v>6.9</v>
@@ -3403,8 +3404,8 @@
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A183">
-        <v>182</v>
+      <c r="A183" s="1">
+        <v>45839</v>
       </c>
       <c r="B183">
         <v>10.1</v>
@@ -3417,8 +3418,8 @@
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A184">
-        <v>183</v>
+      <c r="A184" s="1">
+        <v>45840</v>
       </c>
       <c r="B184">
         <v>13.1</v>
@@ -3431,8 +3432,8 @@
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A185">
-        <v>184</v>
+      <c r="A185" s="1">
+        <v>45841</v>
       </c>
       <c r="B185">
         <v>14.7</v>
@@ -3445,8 +3446,8 @@
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A186">
-        <v>185</v>
+      <c r="A186" s="1">
+        <v>45842</v>
       </c>
       <c r="B186">
         <v>13.9</v>
@@ -3459,8 +3460,8 @@
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A187">
-        <v>186</v>
+      <c r="A187" s="1">
+        <v>45843</v>
       </c>
       <c r="B187">
         <v>12.6</v>
@@ -3473,8 +3474,8 @@
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A188">
-        <v>187</v>
+      <c r="A188" s="1">
+        <v>45844</v>
       </c>
       <c r="B188">
         <v>8.6</v>
@@ -3487,8 +3488,8 @@
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A189">
-        <v>188</v>
+      <c r="A189" s="1">
+        <v>45845</v>
       </c>
       <c r="B189">
         <v>14.3</v>
@@ -3501,8 +3502,8 @@
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A190">
-        <v>189</v>
+      <c r="A190" s="1">
+        <v>45846</v>
       </c>
       <c r="B190">
         <v>10</v>
@@ -3515,8 +3516,8 @@
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A191">
-        <v>190</v>
+      <c r="A191" s="1">
+        <v>45847</v>
       </c>
       <c r="B191">
         <v>11.2</v>
@@ -3529,8 +3530,8 @@
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A192">
-        <v>191</v>
+      <c r="A192" s="1">
+        <v>45848</v>
       </c>
       <c r="B192">
         <v>11.6</v>
@@ -3543,8 +3544,8 @@
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A193">
-        <v>192</v>
+      <c r="A193" s="1">
+        <v>45849</v>
       </c>
       <c r="B193">
         <v>14.1</v>
@@ -3557,8 +3558,8 @@
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A194">
-        <v>193</v>
+      <c r="A194" s="1">
+        <v>45850</v>
       </c>
       <c r="B194">
         <v>11.8</v>
@@ -3571,8 +3572,8 @@
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A195">
-        <v>194</v>
+      <c r="A195" s="1">
+        <v>45851</v>
       </c>
       <c r="B195">
         <v>15</v>
@@ -3585,8 +3586,8 @@
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A196">
-        <v>195</v>
+      <c r="A196" s="1">
+        <v>45852</v>
       </c>
       <c r="B196">
         <v>17.2</v>
@@ -3599,8 +3600,8 @@
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A197">
-        <v>196</v>
+      <c r="A197" s="1">
+        <v>45853</v>
       </c>
       <c r="B197">
         <v>14</v>
@@ -3613,8 +3614,8 @@
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A198">
-        <v>197</v>
+      <c r="A198" s="1">
+        <v>45854</v>
       </c>
       <c r="B198">
         <v>12.3</v>
@@ -3627,8 +3628,8 @@
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A199">
-        <v>198</v>
+      <c r="A199" s="1">
+        <v>45855</v>
       </c>
       <c r="B199">
         <v>17.5</v>
@@ -3641,8 +3642,8 @@
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A200">
-        <v>199</v>
+      <c r="A200" s="1">
+        <v>45856</v>
       </c>
       <c r="B200">
         <v>21.3</v>
@@ -3655,8 +3656,8 @@
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A201">
-        <v>200</v>
+      <c r="A201" s="1">
+        <v>45857</v>
       </c>
       <c r="B201">
         <v>19.100000000000001</v>
@@ -3669,8 +3670,8 @@
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A202">
-        <v>201</v>
+      <c r="A202" s="1">
+        <v>45858</v>
       </c>
       <c r="B202">
         <v>16.100000000000001</v>
@@ -3683,8 +3684,8 @@
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A203">
-        <v>202</v>
+      <c r="A203" s="1">
+        <v>45859</v>
       </c>
       <c r="B203">
         <v>14.4</v>
@@ -3697,8 +3698,8 @@
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A204">
-        <v>203</v>
+      <c r="A204" s="1">
+        <v>45860</v>
       </c>
       <c r="B204">
         <v>11.1</v>
@@ -3711,8 +3712,8 @@
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A205">
-        <v>204</v>
+      <c r="A205" s="1">
+        <v>45861</v>
       </c>
       <c r="B205">
         <v>10.9</v>
@@ -3725,8 +3726,8 @@
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A206">
-        <v>205</v>
+      <c r="A206" s="1">
+        <v>45862</v>
       </c>
       <c r="B206">
         <v>12.3</v>
@@ -3739,8 +3740,8 @@
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A207">
-        <v>206</v>
+      <c r="A207" s="1">
+        <v>45863</v>
       </c>
       <c r="B207">
         <v>14.3</v>
@@ -3753,8 +3754,8 @@
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A208">
-        <v>207</v>
+      <c r="A208" s="1">
+        <v>45864</v>
       </c>
       <c r="B208">
         <v>9.5</v>
@@ -3767,8 +3768,8 @@
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A209">
-        <v>208</v>
+      <c r="A209" s="1">
+        <v>45865</v>
       </c>
       <c r="B209">
         <v>8.6999999999999993</v>
@@ -3781,8 +3782,8 @@
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A210">
-        <v>209</v>
+      <c r="A210" s="1">
+        <v>45866</v>
       </c>
       <c r="B210">
         <v>11.9</v>
@@ -3795,8 +3796,8 @@
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A211">
-        <v>210</v>
+      <c r="A211" s="1">
+        <v>45867</v>
       </c>
       <c r="B211">
         <v>15.6</v>
@@ -3809,8 +3810,8 @@
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A212">
-        <v>211</v>
+      <c r="A212" s="1">
+        <v>45868</v>
       </c>
       <c r="B212">
         <v>17.8</v>
@@ -3823,8 +3824,8 @@
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A213">
-        <v>212</v>
+      <c r="A213" s="1">
+        <v>45869</v>
       </c>
       <c r="B213">
         <v>16.399999999999999</v>
@@ -3837,8 +3838,8 @@
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A214">
-        <v>213</v>
+      <c r="A214" s="1">
+        <v>45870</v>
       </c>
       <c r="B214">
         <v>13</v>
@@ -3851,8 +3852,8 @@
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A215">
-        <v>214</v>
+      <c r="A215" s="1">
+        <v>45871</v>
       </c>
       <c r="B215">
         <v>16.8</v>
@@ -3865,8 +3866,8 @@
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A216">
-        <v>215</v>
+      <c r="A216" s="1">
+        <v>45872</v>
       </c>
       <c r="B216">
         <v>13.3</v>
@@ -3879,8 +3880,8 @@
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A217">
-        <v>216</v>
+      <c r="A217" s="1">
+        <v>45873</v>
       </c>
       <c r="B217">
         <v>11.1</v>
@@ -3893,8 +3894,8 @@
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A218">
-        <v>217</v>
+      <c r="A218" s="1">
+        <v>45874</v>
       </c>
       <c r="B218">
         <v>13.6</v>
@@ -3907,8 +3908,8 @@
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A219">
-        <v>218</v>
+      <c r="A219" s="1">
+        <v>45875</v>
       </c>
       <c r="B219">
         <v>16.399999999999999</v>
@@ -3921,8 +3922,8 @@
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A220">
-        <v>219</v>
+      <c r="A220" s="1">
+        <v>45876</v>
       </c>
       <c r="B220">
         <v>11.8</v>
@@ -3935,8 +3936,8 @@
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A221">
-        <v>220</v>
+      <c r="A221" s="1">
+        <v>45877</v>
       </c>
       <c r="B221">
         <v>16.8</v>
@@ -3949,8 +3950,8 @@
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A222">
-        <v>221</v>
+      <c r="A222" s="1">
+        <v>45878</v>
       </c>
       <c r="B222">
         <v>18</v>
@@ -3963,8 +3964,8 @@
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A223">
-        <v>222</v>
+      <c r="A223" s="1">
+        <v>45879</v>
       </c>
       <c r="B223">
         <v>18.600000000000001</v>
